--- a/Asset List.xlsx
+++ b/Asset List.xlsx
@@ -18,10 +18,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Sprites</t>
+  </si>
+  <si>
+    <t>ball</t>
+  </si>
+  <si>
+    <t>paddle</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>level background</t>
+  </si>
+  <si>
+    <t>menu background</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>paddle hit</t>
+  </si>
+  <si>
+    <t>wall hit</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>end game</t>
+  </si>
+  <si>
+    <t>button click</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>looping track for level(at least 30 seconds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">looping track for menu </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -49,8 +113,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -331,12 +397,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>